--- a/Vessels_DATA/ALTERNATIVE_PROP_2/23964TEU_scrubber_only_ECA_zones_chain.xlsx
+++ b/Vessels_DATA/ALTERNATIVE_PROP_2/23964TEU_scrubber_only_ECA_zones_chain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roeland van Hagen\Documents\Maritieme techniek\1.Master\MT44070 shipping management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evert\Documents\TU-Delft\TIL Master\MT44070 Shipping Management\MT44070_REPO\MT44070_SHIPPING\Vessels_DATA\ALTERNATIVE_PROP_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674259D7-6BD8-48A2-B94A-79BF238A95AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F7CC31-1ED6-4522-8EC6-403416A93A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="11976" activeTab="3" xr2:uid="{6963DD7C-6F16-4732-AD5A-9CDFF7EA6386}"/>
+    <workbookView xWindow="11244" yWindow="0" windowWidth="11892" windowHeight="12336" xr2:uid="{6963DD7C-6F16-4732-AD5A-9CDFF7EA6386}"/>
   </bookViews>
   <sheets>
     <sheet name="CostChain_TwoNuts" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1041,7 +1041,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1072,7 +1072,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.872392595662384E-2"/>
+          <c:y val="4.4389313835770522E-2"/>
+          <c:w val="0.76490335911958374"/>
+          <c:h val="0.9042320584926884"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1135,7 +1145,7 @@
                   <c:v>1085.7482038294047</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1085.7482038294047</c:v>
+                  <c:v>1085.7482038293999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1085.7482038294047</c:v>
@@ -1285,7 +1295,7 @@
                   <c:v>611.84490008512489</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>632.24187816569724</c:v>
+                  <c:v>632.24187816569702</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>647.18912340701911</c:v>
@@ -1360,7 +1370,7 @@
                   <c:v>408.0132327112031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>381.82986950183096</c:v>
+                  <c:v>381.82986950183101</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>462.70626734618133</c:v>
@@ -1435,7 +1445,7 @@
                   <c:v>423.65886054340342</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>390.61684209720886</c:v>
+                  <c:v>390.61684209720897</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>406.67473658448711</c:v>
@@ -1543,7 +1553,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2048,14 +2058,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2125,7 +2135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2443,7 +2453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29D897D-E287-4B7E-BB61-1BF1833F27C4}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2960,22 +2972,22 @@
         <v>22</v>
       </c>
       <c r="I19" s="2">
-        <v>1085.7482038294047</v>
+        <v>1085.7482038293999</v>
       </c>
       <c r="J19" s="2">
         <v>99.652513410564595</v>
       </c>
       <c r="K19" s="2">
-        <v>632.24187816569724</v>
+        <v>632.24187816569702</v>
       </c>
       <c r="L19" s="2">
-        <v>381.82986950183096</v>
+        <v>381.82986950183101</v>
       </c>
       <c r="M19" s="2">
-        <v>390.61684209720886</v>
+        <v>390.61684209720897</v>
       </c>
       <c r="N19" s="2">
-        <v>2590.0893070047064</v>
+        <v>2590.08930700471</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.3">
@@ -11800,7 +11812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11282A63-0887-48DE-9CCD-7B122DB79C62}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
